--- a/Fund_Holdings.xlsx
+++ b/Fund_Holdings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iskwien.sharepoint.com/sites/ISK-Wien/Freigegebene Dokumente/General/ZZ Gruppe/2024/Personal/Farkas/PMP_TM2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D25FE1E-81B5-4BEA-8586-D5BAF583FA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{1D25FE1E-81B5-4BEA-8586-D5BAF583FA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73676097-1651-40F9-8A52-EF7745153668}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45D66C0E-DACA-4D76-9611-4C0185591771}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45D66C0E-DACA-4D76-9611-4C0185591771}"/>
   </bookViews>
   <sheets>
     <sheet name="BRK and Indices" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
-  <si>
-    <t>AQR Style Premia Alternative Fund</t>
-  </si>
-  <si>
-    <t>As of December 31, 2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Currencies</t>
   </si>
@@ -58,15 +52,6 @@
     <t>Stocks &amp; Industries</t>
   </si>
   <si>
-    <t>Risk Allocation by Asset Class</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
@@ -100,24 +85,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>SPDR® S&amp;P 500® ETF Trust</t>
-  </si>
-  <si>
-    <t>Fund Sector Breakdown as of Mar 05 2025</t>
-  </si>
-  <si>
-    <t>American Funds 2030 Target</t>
-  </si>
-  <si>
-    <t>As of 1/31/2025</t>
-  </si>
-  <si>
-    <t>American Funds 2025 Target</t>
-  </si>
-  <si>
-    <t>American Funds 2050 Target</t>
-  </si>
-  <si>
     <t>U.S. Equities</t>
   </si>
   <si>
@@ -133,28 +100,34 @@
     <t>Non-U.S. Bonds</t>
   </si>
   <si>
-    <t>Berkshire Hathaway</t>
-  </si>
-  <si>
-    <t>as of Mar 07 2025</t>
-  </si>
-  <si>
-    <t>MSCI World ex USA</t>
-  </si>
-  <si>
-    <t>as of Jan 31 2025</t>
-  </si>
-  <si>
-    <t>Wieght</t>
-  </si>
-  <si>
     <t>Commodities and Alternatives</t>
   </si>
   <si>
-    <t>As of March 07 2025</t>
-  </si>
-  <si>
     <t>Portfolio</t>
+  </si>
+  <si>
+    <t>American_Funds_2030_Target</t>
+  </si>
+  <si>
+    <t>American_Funds_2025_Target</t>
+  </si>
+  <si>
+    <t>American_Funds_2050_Target</t>
+  </si>
+  <si>
+    <t>Asset_Class</t>
+  </si>
+  <si>
+    <t>AQR_Style_Premia_Alternative_Fund</t>
+  </si>
+  <si>
+    <t>SPDR_S&amp;P_500_ETF_Trust</t>
+  </si>
+  <si>
+    <t>Berkshire_Hathaway</t>
+  </si>
+  <si>
+    <t>MSCI_World_ex_USA</t>
   </si>
 </sst>
 </file>
@@ -198,12 +171,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD61E699-D830-42B7-AF88-2975896EB11D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B4:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,191 +526,166 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1424</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.02</v>
       </c>
       <c r="D4" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.1424</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.39</v>
+        <v>0.1046</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.245</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.02</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.112</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1046</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>8.3199999999999996E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="D9" s="1">
-        <v>0.16800000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.14699999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>3.1800000000000002E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.01E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D14" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -749,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D346B4-05A6-4A33-8E5E-7EB11D73455D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,88 +711,64 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.32919999999999999</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
+      <c r="B3" s="1">
+        <v>0.1991</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.32095022250275002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1051</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.41985637419706995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>0.32919999999999999</v>
+        <v>0.14680000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.10019059300318001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>0.1991</v>
+        <v>0.2198</v>
       </c>
       <c r="C6" s="2">
-        <v>0.32095022250275002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.1051</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.41985637419706995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.14680000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.10019059300318001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.2198</v>
-      </c>
-      <c r="C9" s="2">
         <v>0.15900281029700999</v>
       </c>
     </row>
@@ -856,10 +779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A031D04-C35D-4CAC-A4E5-368CB0FC3BFB}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,109 +792,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.439</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.439</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <v>0.35499999999999998</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.63100000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.44</v>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.111</v>
       </c>
       <c r="D5" s="1">
-        <v>7.8E-2</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>0.04</v>
       </c>
       <c r="C6" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D6" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="60580afd-2765-415e-a024-7e9ff761332b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33819ea0-ebe2-49a1-a511-2fdfd15f8040" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100147073C54AC26F4FB79B908A17AC475B" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bb590998a44ab88fea0650574a73f554">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60580afd-2765-415e-a024-7e9ff761332b" xmlns:ns3="33819ea0-ebe2-49a1-a511-2fdfd15f8040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20193022e6678c770d54d851a8531e65" ns2:_="" ns3:_="">
+    <xsd:import namespace="60580afd-2765-415e-a024-7e9ff761332b"/>
+    <xsd:import namespace="33819ea0-ebe2-49a1-a511-2fdfd15f8040"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60580afd-2765-415e-a024-7e9ff761332b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0fb7a9c4-9a8b-4167-8a0f-2d2540a67809" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33819ea0-ebe2-49a1-a511-2fdfd15f8040" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{058e888a-23d2-42c8-abb2-768c178a022f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="33819ea0-ebe2-49a1-a511-2fdfd15f8040">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B17EAA53-8FB9-4B47-BD1E-6E5DD5175C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60580afd-2765-415e-a024-7e9ff761332b"/>
+    <ds:schemaRef ds:uri="33819ea0-ebe2-49a1-a511-2fdfd15f8040"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35369CA7-E22E-4CB5-93E3-10BF8A9FABC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="60580afd-2765-415e-a024-7e9ff761332b"/>
+    <ds:schemaRef ds:uri="33819ea0-ebe2-49a1-a511-2fdfd15f8040"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB938E2-707A-402A-B35B-BE31C69D0695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>